--- a/dataset-inventory/estc/estc_dataset_standard_3.xlsx
+++ b/dataset-inventory/estc/estc_dataset_standard_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\dataset-inventory\estc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F938542-D6D0-4BEF-9B46-41D9884A4CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD4E2B6-68A6-44D8-B389-3DE70ECD25B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20766,13 +20766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B470" sqref="B470"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="95.08984375" customWidth="1"/>
+    <col min="1" max="1" width="43.453125" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="11" width="13.54296875" style="1" customWidth="1"/>
@@ -90438,7 +90438,7 @@
         <v>1</v>
       </c>
       <c r="M3138">
-        <f t="shared" ref="M3138:M3201" si="49">L3138/9442</f>
+        <f t="shared" ref="M3138:M3144" si="49">L3138/9442</f>
         <v>1.0590976488032197E-4</v>
       </c>
     </row>
